--- a/anex/R301_Grille_Evaluation.xlsx
+++ b/anex/R301_Grille_Evaluation.xlsx
@@ -780,7 +780,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="10" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="E44" s="7" t="n">
         <f aca="false">SUM(E41:E43)</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="E45" s="17" t="n">
         <f aca="false">SUM(E34,E37,E40,E44)</f>
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="E47" s="26" t="n">
         <f aca="false">ROUND(E26*(E28+E45)*4,0)/4</f>
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/anex/R301_Grille_Evaluation.xlsx
+++ b/anex/R301_Grille_Evaluation.xlsx
@@ -779,8 +779,8 @@
   </sheetPr>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R11" activeCellId="0" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -910,7 +910,7 @@
         <v>0.5</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="10" t="n">
         <v>0.5</v>
@@ -940,7 +940,7 @@
         <v>0.5</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.5</v>
@@ -955,7 +955,7 @@
         <v>0.5</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0.5</v>
@@ -970,7 +970,7 @@
         <v>0.5</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>0.5</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="D13" s="7" t="n">
         <f aca="false">SUM(D8:D12)</f>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="E13" s="7" t="n">
         <f aca="false">SUM(E8:E12)</f>
@@ -1050,7 +1050,7 @@
         <v>0.5</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0.5</v>
@@ -1065,7 +1065,7 @@
         <v>0.5</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>0.5</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="D20" s="15" t="n">
         <f aca="false">SUM(D14:D19)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="15" t="n">
         <f aca="false">SUM(E14:E19)</f>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="D26" s="17" t="n">
         <f aca="false">SUM(D7,D13,D20,D25)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E26" s="17" t="n">
         <f aca="false">SUM(E7,E13,E20,E25)</f>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="D47" s="26" t="n">
         <f aca="false">ROUND(D26*(D28+D45)*4,0)/4</f>
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="E47" s="26" t="n">
         <f aca="false">ROUND(E26*(E28+E45)*4,0)/4</f>

--- a/anex/R301_Grille_Evaluation.xlsx
+++ b/anex/R301_Grille_Evaluation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t xml:space="preserve">FONCTIONNEL (/20)</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t xml:space="preserve">BONUS : L'application est structuré en 3 couches (Vue-Controleur-Modele) aux responsabilités parfaitement séparées. Le Modèle n'appelle que la base de données. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">,</t>
   </si>
   <si>
     <t xml:space="preserve">BONUS : La POO est mise en oeuvre, et on retrouve des classes métiers contenant la logique applicative</t>
@@ -779,8 +782,8 @@
   </sheetPr>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R11" activeCellId="0" sqref="R11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1115,7 +1118,7 @@
         <v>0.25</v>
       </c>
       <c r="D21" s="10" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E21" s="10" t="n">
         <v>0.25</v>
@@ -1130,7 +1133,7 @@
         <v>0.25</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.25</v>
@@ -1145,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>1</v>
@@ -1160,7 +1163,7 @@
         <v>0.5</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>0.5</v>
@@ -1177,7 +1180,7 @@
       </c>
       <c r="D25" s="7" t="n">
         <f aca="false">SUM(D21:D24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" s="7" t="n">
         <f aca="false">SUM(E21:E24)</f>
@@ -1195,7 +1198,7 @@
       </c>
       <c r="D26" s="17" t="n">
         <f aca="false">SUM(D7,D13,D20,D25)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26" s="17" t="n">
         <f aca="false">SUM(E7,E13,E20,E25)</f>
@@ -1363,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1378,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,7 +1399,7 @@
       </c>
       <c r="E40" s="7" t="n">
         <f aca="false">SUM(E38:E39)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1413,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="10" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="30.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,14 +1430,14 @@
       <c r="D42" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="E42" s="5" t="n">
-        <v>0</v>
+      <c r="E42" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8"/>
       <c r="B43" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="13" t="n">
         <v>0.1</v>
@@ -1461,12 +1464,12 @@
       </c>
       <c r="E44" s="7" t="n">
         <f aca="false">SUM(E41:E43)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="17" t="n">
@@ -1479,12 +1482,12 @@
       </c>
       <c r="E45" s="17" t="n">
         <f aca="false">SUM(E34,E37,E40,E44)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="26" t="n">
@@ -1493,11 +1496,11 @@
       </c>
       <c r="D47" s="26" t="n">
         <f aca="false">ROUND(D26*(D28+D45)*4,0)/4</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E47" s="26" t="n">
         <f aca="false">ROUND(E26*(E28+E45)*4,0)/4</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/anex/R301_Grille_Evaluation.xlsx
+++ b/anex/R301_Grille_Evaluation.xlsx
@@ -782,8 +782,8 @@
   </sheetPr>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1363,7 +1363,7 @@
         <v>0.1</v>
       </c>
       <c r="D38" s="10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E38" s="10" t="n">
         <v>0.1</v>
@@ -1378,7 +1378,7 @@
         <v>0.2</v>
       </c>
       <c r="D39" s="13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E39" s="13" t="n">
         <v>0.2</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="D40" s="7" t="n">
         <f aca="false">SUM(D38:D39)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E40" s="7" t="n">
         <f aca="false">SUM(E38:E39)</f>
@@ -1413,7 +1413,7 @@
         <v>0.2</v>
       </c>
       <c r="D41" s="10" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E41" s="10" t="n">
         <v>0.2</v>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="D44" s="7" t="n">
         <f aca="false">SUM(D41:D43)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E44" s="7" t="n">
         <f aca="false">SUM(E41:E43)</f>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="D45" s="17" t="n">
         <f aca="false">SUM(D34,D37,D40,D44)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E45" s="17" t="n">
         <f aca="false">SUM(E34,E37,E40,E44)</f>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="D47" s="26" t="n">
         <f aca="false">ROUND(D26*(D28+D45)*4,0)/4</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E47" s="26" t="n">
         <f aca="false">ROUND(E26*(E28+E45)*4,0)/4</f>
